--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_89_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_89_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.1631412261455676, 3.8932361946617586]</t>
+          <t>[3.156226446508354, 3.900150974298972]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.16076804112286114, 0.5563121086870271]</t>
+          <t>[0.16062881232979542, 0.5564513374800928]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.0006770965719031796</v>
+        <v>0.0006823302199405745</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0006770965719031796</v>
+        <v>0.0006823302199405745</v>
       </c>
       <c r="W2" t="n">
         <v>14.58342342342391</v>
